--- a/Peter/Arbeitszeitabelle.xlsx
+++ b/Peter/Arbeitszeitabelle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4204148-F60F-4F69-ACEF-DEF7735BFE74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B19273-3F50-4854-B7DD-414B53026942}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -181,6 +181,30 @@
   <si>
     <t>Besprechung mit Prof.Wurzinger programmierung</t>
   </si>
+  <si>
+    <t xml:space="preserve">Kleinstprogramme </t>
+  </si>
+  <si>
+    <t>Kleinstprogramme Wie mit Prof. Wurzinger ausgemacht(Programm Zeigt eine Kleine Wirkung</t>
+  </si>
+  <si>
+    <t>Kinecteinbindung</t>
+  </si>
+  <si>
+    <t>Probleme mit den OpenNi.java da nicht Vorhanden</t>
+  </si>
+  <si>
+    <t>Auslesen von Kinectdaten einbindung in das Rock Paper Scissors Programm</t>
+  </si>
+  <si>
+    <t>Besprechung mit Hr. Prof. Wurzinger &amp; Programmierung</t>
+  </si>
+  <si>
+    <t>Kinecteinbindung besprehung mit Hr. Wurzinger</t>
+  </si>
+  <si>
+    <t>Zählen der Bewegungen.</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +212,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -281,7 +305,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -563,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>43521</v>
       </c>
@@ -1153,10 +1177,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>43523</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>43525</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C51">
-        <f>SUM(C2:C49)</f>
-        <v>109</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>43526</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>43527</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>43528</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>43530</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Peter/Arbeitszeitabelle.xlsx
+++ b/Peter/Arbeitszeitabelle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B19273-3F50-4854-B7DD-414B53026942}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8926F072-C2A6-46B5-8FA0-37EACA70F311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>Zählen der Bewegungen.</t>
+  </si>
+  <si>
+    <t>Erstellen Schreibvorlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmieren Voice und Kinect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voice commands and kinect </t>
   </si>
 </sst>
 </file>
@@ -587,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,6 +1264,31 @@
         <v>51</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>43532</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>43535</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Peter/Arbeitszeitabelle.xlsx
+++ b/Peter/Arbeitszeitabelle.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8926F072-C2A6-46B5-8FA0-37EACA70F311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E27C9-366D-48AC-AE94-5D33A9691926}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -146,9 +147,6 @@
     <t>Motion caprure Kinect</t>
   </si>
   <si>
-    <t>Code changes to track the position of youre biceps</t>
-  </si>
-  <si>
     <t>Marktanalyse Inmoov Poppy ASPIR</t>
   </si>
   <si>
@@ -213,15 +211,29 @@
   </si>
   <si>
     <t xml:space="preserve">Voice commands and kinect </t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Programmierren Voice Commands</t>
+  </si>
+  <si>
+    <t>Programmierung Voice Commands</t>
+  </si>
+  <si>
+    <t>Programm RockPaperScisssors</t>
+  </si>
+  <si>
+    <t>Bizeps erkennung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -314,7 +326,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="72" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -647,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -661,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -675,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -689,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -703,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -717,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1094,18 +1106,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>43511</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,7 +1125,7 @@
         <v>43515</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1124,7 +1136,7 @@
         <v>43517</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1135,13 +1147,13 @@
         <v>43518</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
         <v>37</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,13 +1161,13 @@
         <v>43519</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,16 +1175,16 @@
         <v>43520</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
         <v>41</v>
-      </c>
-      <c r="F48" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1180,7 +1192,7 @@
         <v>43521</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="6">
         <v>2</v>
@@ -1191,13 +1203,13 @@
         <v>43523</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1205,7 +1217,7 @@
         <v>43525</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1216,7 +1228,7 @@
         <v>43526</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1227,13 +1239,13 @@
         <v>43527</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
         <v>46</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1241,13 +1253,13 @@
         <v>43528</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1255,13 +1267,13 @@
         <v>43530</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
         <v>50</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1269,7 +1281,7 @@
         <v>43532</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1280,13 +1292,239 @@
         <v>43535</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
         <v>53</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>43536</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>43538</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>43539</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>43540</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>43541</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>43542</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>43544</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>43545</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>43546</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>43547</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>43548</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>43549</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>43550</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>43551</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>43552</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>43553</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>43554</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>43556</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>43557</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>43559</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <f>SUM(C2:C77)</f>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
